--- a/قائمة الأفلام.xlsx
+++ b/قائمة الأفلام.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="861" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="861" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1927" sheetId="1" r:id="rId1"/>
@@ -5006,7 +5006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5041,7 +5041,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7745,8 +7745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,10 +7756,10 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="220.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
